--- a/data/trans_bre/P54_A_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_5_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>436,5%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 7,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; 0,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 2,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; 112,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 77,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,49%</t>
         </is>
       </c>
     </row>
@@ -722,27 +722,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 7,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 1,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 0,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,37; 124,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,52; 5,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,41; 250,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,5%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 5,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 0,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 1,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 79,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,74; 157,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,44; 578,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_5_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,159 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>46,88%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-65,84%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>436,5%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.906697664917383</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.366231357668976</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.248979667388256</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.4687796435833333</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.7739835665963091</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>4.081325430397539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 7,48</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 0,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 2,07</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,87; 112,46</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 77,28</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,82; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.2196232377230108</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.86776591639498</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.2434684302130409</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.02866627588508588</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3518651000023479</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.481127482410121</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.1558538158410507</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.699458950706152</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.124555266892862</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.4918261951931182</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>40,96%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>87,85%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-19,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 7,57</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 1,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 0,88</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,37; 124,26</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.323580589726859</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.476606795332996</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.268943490538515</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.4096370029927632</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>2.827531158522598</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2469418835715972</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,55</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-32,96%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.8550985293826073</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3330418699348631</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.686417110703692</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1037490201223089</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9063840487874959</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-26,52; 5,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,72</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,06</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-94,41; 250,88</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.574076945313646</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.32167756044479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.9189706844996173</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.2426204335085</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>2.321486535487544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,34 +771,26 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>33,89%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-29,38%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>130,5%</t>
+      <c r="C10" s="5" t="n">
+        <v>-3.551046570330537</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.219870508238457</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.734863259751881</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.3295949153683958</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -877,42 +798,130 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 5,53</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,15; 0,54</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,04; 1,21</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 79,01</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-89,74; 157,64</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-22,44; 578,59</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-26.52211223794335</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.9440796902377236</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.890367596184495</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.227360804179038</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.495015483684281</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2.508750761863526</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.880210326309075</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.3835741016378791</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6950614035349327</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.338850582477396</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2309260470372609</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.187037997936594</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3170404778404351</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.016085804652394</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.0436673720576203</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.03845637099433141</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.9207746634764783</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1961584679024603</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.531470788859462</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.267118832869633</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.560229602546003</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.7901225120319771</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.665044740291258</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.837485930265987</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -921,12 +930,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
